--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C6742-6530-48EC-A487-9EAF6A2F90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10292741-F115-4E1C-8DA9-9920245061C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2175" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,14 +391,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耐久伤害</t>
@@ -616,6 +608,26 @@
   </si>
   <si>
     <t>必须兵符道具Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops 1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops 2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops 3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops 4.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops 5.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1158,7 @@
     <col min="27" max="27" width="76.5" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="55.125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.875" style="2" customWidth="1"/>
     <col min="31" max="31" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
@@ -1170,7 +1182,7 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>56</v>
@@ -1179,43 +1191,43 @@
         <v>57</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="W1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>61</v>
@@ -1302,7 +1314,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>59</v>
@@ -1311,43 +1323,43 @@
         <v>60</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="V3" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>64</v>
@@ -1441,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>69</v>
@@ -1465,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="15" t="s">
         <v>40</v>
@@ -1476,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1556,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>75</v>
@@ -1569,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1609,7 +1621,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="4">
         <v>1000</v>
@@ -1651,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>74</v>
@@ -1663,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1673,7 +1685,7 @@
         <v>刀兵</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1703,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="4">
         <v>1000</v>
@@ -1745,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>71</v>
@@ -1757,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1767,7 +1779,7 @@
         <v>弓兵</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1797,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="4">
         <v>1200</v>
@@ -1839,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>73</v>
@@ -1851,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1891,7 +1903,7 @@
         <v>81</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="4">
         <v>1000</v>
@@ -1933,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>72</v>
@@ -1945,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1960,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1975,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -1990,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -2005,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2020,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2035,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2050,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -2065,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2080,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -2097,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -2114,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -2308,7 +2320,7 @@
         <v>85</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q33" s="4">
         <v>2000</v>
@@ -2385,7 +2397,7 @@
         <v>85</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q34" s="4">
         <v>2400</v>
@@ -2462,7 +2474,7 @@
         <v>85</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q35" s="4">
         <v>2500</v>
@@ -2539,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="4">
         <v>2400</v>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10292741-F115-4E1C-8DA9-9920245061C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358EE621-7AC0-40FD-B070-284AEE10952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2175" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,23 +611,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Model/Prefab/Troops 1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops 2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops 3.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops 4.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops 5.prefab</t>
+    <t>Assets/Model/Prefab/Troops1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops4.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops5.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358EE621-7AC0-40FD-B070-284AEE10952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5FC437-3F3E-43DE-AF09-3F97BD89B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2175" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -378,14 +378,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>influenceAbility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,14 +390,6 @@
   </si>
   <si>
     <t>durabilityDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +612,22 @@
   </si>
   <si>
     <t>Assets/Model/Prefab/Troops5.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12,13,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1141,7 +1141,7 @@
     <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
@@ -1182,7 +1182,7 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>56</v>
@@ -1191,43 +1191,43 @@
         <v>57</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="W1" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>61</v>
@@ -1314,7 +1314,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>59</v>
@@ -1323,43 +1323,43 @@
         <v>60</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="V3" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>64</v>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>69</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>75</v>
@@ -1581,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>弓兵</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1603,7 +1603,7 @@
         <v>85</v>
       </c>
       <c r="J6" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1621,7 +1621,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="4">
         <v>1000</v>
@@ -1663,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>74</v>
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>刀兵</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1697,7 +1697,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="4">
         <v>1000</v>
@@ -1757,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>71</v>
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>弓兵</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1791,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="4">
         <v>1200</v>
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>73</v>
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1873,7 +1873,7 @@
         <v>骑兵</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1885,7 +1885,7 @@
         <v>95</v>
       </c>
       <c r="J9" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -1903,7 +1903,7 @@
         <v>81</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="4">
         <v>1000</v>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>72</v>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -2017,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2062,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -2077,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>53</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>71</v>
@@ -2281,7 +2281,7 @@
         <v>54</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>71</v>
@@ -2320,7 +2320,7 @@
         <v>85</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q33" s="4">
         <v>2000</v>
@@ -2358,7 +2358,7 @@
         <v>31</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE33" s="2" t="s">
         <v>72</v>
@@ -2397,7 +2397,7 @@
         <v>85</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q34" s="4">
         <v>2400</v>
@@ -2435,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>72</v>
@@ -2474,7 +2474,7 @@
         <v>85</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q35" s="4">
         <v>2500</v>
@@ -2512,7 +2512,7 @@
         <v>33</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>72</v>
@@ -2551,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q36" s="4">
         <v>2400</v>
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>71</v>
@@ -2664,7 +2664,7 @@
         <v>35</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>71</v>
@@ -2739,7 +2739,7 @@
         <v>36</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>71</v>
@@ -2814,7 +2814,7 @@
         <v>37</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>71</v>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5FC437-3F3E-43DE-AF09-3F97BD89B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12831793-0C3B-49CA-AC46-24F1B52F9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -385,10 +385,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>耐久伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>durabilityDmg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +624,10 @@
   </si>
   <si>
     <t>1,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久伤害倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,7 +1182,7 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>56</v>
@@ -1191,43 +1191,43 @@
         <v>57</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>61</v>
@@ -1314,7 +1314,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>59</v>
@@ -1323,43 +1323,43 @@
         <v>60</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="V3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>64</v>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>69</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>75</v>
@@ -1581,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1591,13 +1591,13 @@
         <v>弓兵</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
       </c>
       <c r="H6" s="4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I6" s="4">
         <v>85</v>
@@ -1621,7 +1621,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="4">
         <v>1000</v>
@@ -1663,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>74</v>
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1685,13 +1685,13 @@
         <v>刀兵</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
       </c>
       <c r="H7" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I7" s="4">
         <v>105</v>
@@ -1715,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="4">
         <v>1000</v>
@@ -1757,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>71</v>
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1779,13 +1779,13 @@
         <v>弓兵</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
       </c>
       <c r="H8" s="4">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4">
         <v>75</v>
@@ -1809,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="4">
         <v>1200</v>
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>73</v>
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1873,13 +1873,13 @@
         <v>骑兵</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I9" s="4">
         <v>95</v>
@@ -1903,7 +1903,7 @@
         <v>81</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="4">
         <v>1000</v>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>72</v>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -2017,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2062,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -2077,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -2109,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>85</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q33" s="4">
         <v>2000</v>
@@ -2397,7 +2397,7 @@
         <v>85</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="4">
         <v>2400</v>
@@ -2474,7 +2474,7 @@
         <v>85</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q35" s="4">
         <v>2500</v>
@@ -2551,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="4">
         <v>2400</v>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12831793-0C3B-49CA-AC46-24F1B52F9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8453626-6CEC-4468-A983-BEA76B542445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31050" yWindow="1965" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -619,15 +619,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,12,13,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耐久伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,7 +1182,7 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>56</v>
@@ -1779,7 +1779,7 @@
         <v>弓兵</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1873,7 +1873,7 @@
         <v>骑兵</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8453626-6CEC-4468-A983-BEA76B542445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD5661-91C5-48FD-8A0A-38DD4EC532AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="1965" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="1860" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,6 +628,14 @@
   </si>
   <si>
     <t>1,2,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1128,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1518,7 @@
         <v>65</v>
       </c>
       <c r="J5" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1587,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" ref="E6:E21" si="0">LOOKUP(D6,$D$6:$D$9,$C$6:$C$9)</f>
+        <f t="shared" ref="E6:E23" si="0">LOOKUP(D6,$D$6:$D$9,$C$6:$C$9)</f>
         <v>弓兵</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -1603,7 +1611,7 @@
         <v>85</v>
       </c>
       <c r="J6" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1697,7 +1705,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -1791,7 +1799,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1885,7 +1893,7 @@
         <v>95</v>
       </c>
       <c r="J9" s="4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -1952,49 +1960,191 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>128</v>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4">
+        <v>24</v>
+      </c>
+      <c r="K10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刀兵</v>
-      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>137</v>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>弓兵</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4">
+        <v>32</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>刀兵</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
@@ -2002,14 +2152,14 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>弓兵</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
@@ -2017,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2032,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <v>骑兵</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
@@ -2047,29 +2197,29 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>弓兵</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>132</v>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>刀兵</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.15">
@@ -2077,22 +2227,22 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>刀兵</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+        <v>弓兵</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>134</v>
+      <c r="C19" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -2101,235 +2251,119 @@
         <f t="shared" si="0"/>
         <v>骑兵</v>
       </c>
-      <c r="AB19" s="4"/>
-      <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>135</v>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
-      </c>
-      <c r="AB20" s="4"/>
-      <c r="AF20" s="4"/>
+        <v>刀兵</v>
+      </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>136</v>
+      <c r="C21" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>骑兵</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>弓兵</v>
       </c>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
+      <c r="AB22" s="4"/>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>弓兵</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
         <v>13</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D33" s="4">
         <v>7</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>30</v>
-      </c>
-      <c r="I31" s="4">
-        <v>50</v>
-      </c>
-      <c r="J31" s="4">
-        <v>20</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4">
-        <v>1</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="4">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>30</v>
-      </c>
-      <c r="I32" s="4">
-        <v>50</v>
-      </c>
-      <c r="J32" s="4">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4">
-        <v>1</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="18" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <v>30</v>
       </c>
       <c r="I33" s="4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J33" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P33" s="4"/>
       <c r="Q33" s="4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2340,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>68</v>
@@ -2352,61 +2386,56 @@
         <v>86</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
         <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
         <v>30</v>
       </c>
       <c r="I34" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J34" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P34" s="4"/>
       <c r="Q34" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -2414,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y34" s="2" t="s">
         <v>68</v>
@@ -2429,41 +2458,38 @@
         <v>86</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" s="4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H35" s="4">
         <v>30</v>
       </c>
       <c r="I35" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J35" s="4">
         <v>16</v>
@@ -2474,16 +2500,16 @@
         <v>85</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q35" s="4">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="R35" s="4">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="S35" s="4">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -2491,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X35" s="2" t="s">
         <v>67</v>
@@ -2506,10 +2532,10 @@
         <v>86</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>92</v>
@@ -2521,10 +2547,10 @@
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -2534,13 +2560,13 @@
         <v>90</v>
       </c>
       <c r="G36" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" s="4">
         <v>30</v>
       </c>
       <c r="I36" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J36" s="4">
         <v>16</v>
@@ -2551,7 +2577,7 @@
         <v>85</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q36" s="4">
         <v>2400</v>
@@ -2568,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X36" s="2" t="s">
         <v>67</v>
@@ -2583,35 +2609,35 @@
         <v>86</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G37" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H37" s="4">
         <v>30</v>
@@ -2620,22 +2646,24 @@
         <v>80</v>
       </c>
       <c r="J37" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="Q37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -2652,65 +2680,67 @@
         <v>68</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF37" s="4"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G38" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" s="4">
         <v>30</v>
       </c>
       <c r="I38" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J38" s="4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P38" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="Q38" s="4">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="R38" s="4">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="S38" s="4">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -2718,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>67</v>
@@ -2727,16 +2757,16 @@
         <v>68</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>92</v>
@@ -2748,10 +2778,10 @@
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4">
         <v>6</v>
@@ -2761,16 +2791,16 @@
         <v>90</v>
       </c>
       <c r="G39" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H39" s="4">
         <v>30</v>
       </c>
       <c r="I39" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J39" s="4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2779,13 +2809,13 @@
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -2808,10 +2838,10 @@
         <v>86</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>92</v>
@@ -2822,15 +2852,153 @@
       <c r="AF39" s="4"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="D40" s="4"/>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="4">
+        <v>6</v>
+      </c>
       <c r="E40" s="4"/>
-      <c r="AB40" s="4"/>
+      <c r="F40" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="4">
+        <v>80</v>
+      </c>
+      <c r="H40" s="4">
+        <v>30</v>
+      </c>
+      <c r="I40" s="4">
+        <v>100</v>
+      </c>
+      <c r="J40" s="4">
+        <v>26</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="R40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AF40" s="4"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="D41" s="4"/>
+      <c r="B41" s="4">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4">
+        <v>6</v>
+      </c>
       <c r="E41" s="4"/>
-      <c r="AB41" s="4"/>
+      <c r="F41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="4">
+        <v>90</v>
+      </c>
+      <c r="H41" s="4">
+        <v>30</v>
+      </c>
+      <c r="I41" s="4">
+        <v>120</v>
+      </c>
+      <c r="J41" s="4">
+        <v>28</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <v>2500</v>
+      </c>
+      <c r="R41" s="4">
+        <v>2500</v>
+      </c>
+      <c r="S41" s="4">
+        <v>2500</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AF41" s="4"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.15">
@@ -2867,11 +3035,13 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AB47" s="4"/>
+      <c r="AF47" s="4"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AB48" s="4"/>
+      <c r="AF48" s="4"/>
     </row>
     <row r="49" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
@@ -2976,9 +3146,20 @@
     <row r="69" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
+      <c r="AB69" s="4"/>
+    </row>
+    <row r="70" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="AB70" s="4"/>
+    </row>
+    <row r="71" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD5661-91C5-48FD-8A0A-38DD4EC532AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBD429-8EB6-4F1C-A003-644DEA148CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="1860" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1395" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="170">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,50 @@
   <si>
     <t>19</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,9 +1194,9 @@
     <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="20.75" style="2" customWidth="1"/>
@@ -1190,10 +1234,10 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>57</v>
@@ -1322,10 +1366,10 @@
         <v>58</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>60</v>
@@ -1501,9 +1545,8 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f>LOOKUP(D5,$D$6:$D$9,$C$6:$C$9)</f>
-        <v>刀兵</v>
+      <c r="E5" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>80</v>
@@ -1512,10 +1555,10 @@
         <v>65</v>
       </c>
       <c r="H5" s="4">
+        <v>65</v>
+      </c>
+      <c r="I5" s="4">
         <v>30</v>
-      </c>
-      <c r="I5" s="4">
-        <v>65</v>
       </c>
       <c r="J5" s="4">
         <v>16</v>
@@ -1537,13 +1580,13 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -1594,9 +1637,8 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" ref="E6:E23" si="0">LOOKUP(D6,$D$6:$D$9,$C$6:$C$9)</f>
-        <v>弓兵</v>
+      <c r="E6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>149</v>
@@ -1605,10 +1647,10 @@
         <v>95</v>
       </c>
       <c r="H6" s="4">
+        <v>85</v>
+      </c>
+      <c r="I6" s="4">
         <v>100</v>
-      </c>
-      <c r="I6" s="4">
-        <v>85</v>
       </c>
       <c r="J6" s="4">
         <v>16</v>
@@ -1632,13 +1674,13 @@
         <v>118</v>
       </c>
       <c r="Q6" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -1688,9 +1730,8 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刀兵</v>
+      <c r="E7" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>150</v>
@@ -1699,10 +1740,10 @@
         <v>75</v>
       </c>
       <c r="H7" s="4">
+        <v>105</v>
+      </c>
+      <c r="I7" s="4">
         <v>100</v>
-      </c>
-      <c r="I7" s="4">
-        <v>105</v>
       </c>
       <c r="J7" s="4">
         <v>16</v>
@@ -1726,13 +1767,13 @@
         <v>119</v>
       </c>
       <c r="Q7" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -1782,9 +1823,8 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>弓兵</v>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>153</v>
@@ -1793,10 +1833,10 @@
         <v>85</v>
       </c>
       <c r="H8" s="4">
+        <v>75</v>
+      </c>
+      <c r="I8" s="4">
         <v>100</v>
-      </c>
-      <c r="I8" s="4">
-        <v>75</v>
       </c>
       <c r="J8" s="4">
         <v>16</v>
@@ -1820,13 +1860,13 @@
         <v>120</v>
       </c>
       <c r="Q8" s="4">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -1876,9 +1916,8 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>骑兵</v>
+      <c r="E9" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>151</v>
@@ -1887,10 +1926,10 @@
         <v>105</v>
       </c>
       <c r="H9" s="4">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4">
         <v>100</v>
-      </c>
-      <c r="I9" s="4">
-        <v>95</v>
       </c>
       <c r="J9" s="4">
         <v>28</v>
@@ -1914,13 +1953,13 @@
         <v>121</v>
       </c>
       <c r="Q9" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -1978,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I10" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <v>24</v>
@@ -2064,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
         <v>32</v>
@@ -2143,8 +2182,26 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D12,$D$6:$E$9,2,0)</f>
         <v>刀兵</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="4">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
@@ -2158,8 +2215,26 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <f t="shared" ref="E13:E23" si="0">VLOOKUP(D13,$D$6:$E$9,2,0)</f>
+        <v>枪兵</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="4">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
@@ -2174,7 +2249,25 @@
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>枪兵</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
@@ -2191,6 +2284,27 @@
         <f t="shared" si="0"/>
         <v>骑兵</v>
       </c>
+      <c r="F15" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="4">
+        <v>28</v>
+      </c>
+      <c r="N15" s="4">
+        <v>11</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
@@ -2204,7 +2318,25 @@
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>枪兵</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="4">
+        <v>12</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.15">
@@ -2221,6 +2353,24 @@
         <f t="shared" si="0"/>
         <v>刀兵</v>
       </c>
+      <c r="F17" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="4">
+        <v>13</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
@@ -2230,11 +2380,32 @@
         <v>131</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="4">
+        <v>28</v>
+      </c>
+      <c r="N18" s="4">
+        <v>14</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.2">
@@ -2251,6 +2422,27 @@
         <f t="shared" si="0"/>
         <v>骑兵</v>
       </c>
+      <c r="F19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="4">
+        <v>28</v>
+      </c>
+      <c r="N19" s="4">
+        <v>15</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
@@ -2266,6 +2458,24 @@
         <f t="shared" si="0"/>
         <v>刀兵</v>
       </c>
+      <c r="F20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N20" s="4">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
@@ -2281,6 +2491,27 @@
         <f t="shared" si="0"/>
         <v>骑兵</v>
       </c>
+      <c r="F21" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="4">
+        <v>28</v>
+      </c>
+      <c r="N21" s="4">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
@@ -2298,6 +2529,24 @@
         <f t="shared" si="0"/>
         <v>弓兵</v>
       </c>
+      <c r="F22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="AB22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
@@ -2314,6 +2563,24 @@
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>弓兵</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.15">
@@ -2342,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
+        <v>50</v>
+      </c>
+      <c r="I33" s="4">
         <v>30</v>
-      </c>
-      <c r="I33" s="4">
-        <v>50</v>
       </c>
       <c r="J33" s="4">
         <v>20</v>
@@ -2414,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
+        <v>50</v>
+      </c>
+      <c r="I34" s="4">
         <v>30</v>
-      </c>
-      <c r="I34" s="4">
-        <v>50</v>
       </c>
       <c r="J34" s="4">
         <v>20</v>
@@ -2486,10 +2753,10 @@
         <v>70</v>
       </c>
       <c r="H35" s="4">
+        <v>90</v>
+      </c>
+      <c r="I35" s="4">
         <v>30</v>
-      </c>
-      <c r="I35" s="4">
-        <v>90</v>
       </c>
       <c r="J35" s="4">
         <v>16</v>
@@ -2563,10 +2830,10 @@
         <v>80</v>
       </c>
       <c r="H36" s="4">
+        <v>80</v>
+      </c>
+      <c r="I36" s="4">
         <v>30</v>
-      </c>
-      <c r="I36" s="4">
-        <v>80</v>
       </c>
       <c r="J36" s="4">
         <v>16</v>
@@ -2640,10 +2907,10 @@
         <v>100</v>
       </c>
       <c r="H37" s="4">
+        <v>80</v>
+      </c>
+      <c r="I37" s="4">
         <v>30</v>
-      </c>
-      <c r="I37" s="4">
-        <v>80</v>
       </c>
       <c r="J37" s="4">
         <v>16</v>
@@ -2717,10 +2984,10 @@
         <v>90</v>
       </c>
       <c r="H38" s="4">
+        <v>90</v>
+      </c>
+      <c r="I38" s="4">
         <v>30</v>
-      </c>
-      <c r="I38" s="4">
-        <v>90</v>
       </c>
       <c r="J38" s="4">
         <v>16</v>
@@ -2794,10 +3061,10 @@
         <v>70</v>
       </c>
       <c r="H39" s="4">
+        <v>80</v>
+      </c>
+      <c r="I39" s="4">
         <v>30</v>
-      </c>
-      <c r="I39" s="4">
-        <v>80</v>
       </c>
       <c r="J39" s="4">
         <v>24</v>
@@ -2869,10 +3136,10 @@
         <v>80</v>
       </c>
       <c r="H40" s="4">
+        <v>100</v>
+      </c>
+      <c r="I40" s="4">
         <v>30</v>
-      </c>
-      <c r="I40" s="4">
-        <v>100</v>
       </c>
       <c r="J40" s="4">
         <v>26</v>
@@ -2944,10 +3211,10 @@
         <v>90</v>
       </c>
       <c r="H41" s="4">
+        <v>120</v>
+      </c>
+      <c r="I41" s="4">
         <v>30</v>
-      </c>
-      <c r="I41" s="4">
-        <v>120</v>
       </c>
       <c r="J41" s="4">
         <v>28</v>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBD429-8EB6-4F1C-A003-644DEA148CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA92761-8C22-467B-A304-176CA5990670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1395" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="2208" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,14 @@
   </si>
   <si>
     <t>109</t>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops6.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops7.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1182,40 +1190,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="76.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" style="2" customWidth="1"/>
+    <col min="17" max="18" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="76.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="55.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.88671875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1308,7 +1316,7 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1353,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1448,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1626,7 +1634,7 @@
       </c>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1720,7 +1728,7 @@
       </c>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1813,7 +1821,7 @@
       </c>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1906,7 +1914,7 @@
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1999,7 +2007,7 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2078,14 +2086,11 @@
         <v>53</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2164,14 +2169,11 @@
         <v>54</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2515,7 +2517,7 @@
       <c r="AB21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>154</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="AB22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>155</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2591,7 +2593,7 @@
       <c r="AB32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>13</v>
       </c>
@@ -2663,7 +2665,7 @@
       </c>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>14</v>
       </c>
@@ -2735,7 +2737,7 @@
       </c>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>6</v>
       </c>
@@ -2812,7 +2814,7 @@
       </c>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>7</v>
       </c>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>8</v>
       </c>
@@ -2966,7 +2968,7 @@
       </c>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>9</v>
       </c>
@@ -3043,7 +3045,7 @@
       </c>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>10</v>
       </c>
@@ -3118,7 +3120,7 @@
       </c>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>11</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>12</v>
       </c>
@@ -3268,159 +3270,159 @@
       </c>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA92761-8C22-467B-A304-176CA5990670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F43465-96C4-40F6-A872-79BF6BFCA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2208" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="179">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +688,34 @@
   </si>
   <si>
     <t>Assets/Model/Prefab/Troops7.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2221.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2223.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2225.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,42 +1216,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="76.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.88671875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="2" customWidth="1"/>
+    <col min="17" max="18" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="76.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="55.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1316,7 +1344,7 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1381,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1476,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1634,7 +1662,7 @@
       </c>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1728,7 +1756,7 @@
       </c>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1821,7 +1849,7 @@
       </c>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1914,7 +1942,7 @@
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2007,7 +2035,7 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2090,7 +2118,7 @@
       </c>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2173,213 +2201,366 @@
       </c>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>128</v>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f>VLOOKUP(D12,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
+      </c>
+      <c r="G12" s="4">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4">
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="4">
-        <v>8</v>
+      <c r="J12" s="4">
+        <v>24</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" ref="E13:E23" si="0">VLOOKUP(D13,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
+      </c>
+      <c r="G13" s="4">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="4">
-        <v>9</v>
+      <c r="J13" s="4">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="4">
+        <v>90</v>
+      </c>
+      <c r="H14" s="4">
+        <v>120</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="4">
+        <v>28</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>VLOOKUP(D15,$D$6:$E$9,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" s="4">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ref="E16:E26" si="0">VLOOKUP(D16,$D$6:$E$9,2,0)</f>
+        <v>枪兵</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="4">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>枪兵</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="4">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>骑兵</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15" s="4">
-        <v>28</v>
-      </c>
-      <c r="N15" s="4">
-        <v>11</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>枪兵</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" s="4">
-        <v>12</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刀兵</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>159</v>
       </c>
       <c r="N17" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -2395,7 +2576,7 @@
         <v>157</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>159</v>
@@ -2404,54 +2585,51 @@
         <v>28</v>
       </c>
       <c r="N18" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>132</v>
+      <c r="C19" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="4">
-        <v>28</v>
-      </c>
       <c r="N19" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2467,24 +2645,24 @@
         <v>157</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>159</v>
       </c>
       <c r="N20" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>134</v>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -2500,7 +2678,7 @@
         <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>159</v>
@@ -2509,353 +2687,235 @@
         <v>28</v>
       </c>
       <c r="N21" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>135</v>
+    </row>
+    <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>154</v>
+      <c r="J22" s="4">
+        <v>28</v>
+      </c>
+      <c r="N22" s="4">
+        <v>15</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AB22" s="4"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>155</v>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>155</v>
+      <c r="N23" s="4">
+        <v>16</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>骑兵</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="4">
+        <v>28</v>
+      </c>
+      <c r="N24" s="4">
+        <v>17</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>弓兵</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>弓兵</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="4">
         <v>13</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D36" s="4">
         <v>7</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>50</v>
-      </c>
-      <c r="I33" s="4">
-        <v>30</v>
-      </c>
-      <c r="J33" s="4">
-        <v>20</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4">
-        <v>1</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>14</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="4">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>50</v>
-      </c>
-      <c r="I34" s="4">
-        <v>30</v>
-      </c>
-      <c r="J34" s="4">
-        <v>20</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="4">
-        <v>70</v>
-      </c>
-      <c r="H35" s="4">
-        <v>90</v>
-      </c>
-      <c r="I35" s="4">
-        <v>30</v>
-      </c>
-      <c r="J35" s="4">
-        <v>16</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R35" s="4">
-        <v>2000</v>
-      </c>
-      <c r="S35" s="4">
-        <v>2000</v>
-      </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4">
-        <v>1</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I36" s="4">
         <v>30</v>
       </c>
       <c r="J36" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P36" s="4"/>
       <c r="Q36" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="S36" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -2863,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y36" s="2" t="s">
         <v>68</v>
@@ -2878,61 +2938,56 @@
         <v>86</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G37" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I37" s="4">
         <v>30</v>
       </c>
       <c r="J37" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P37" s="4"/>
       <c r="Q37" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="S37" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -2940,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>68</v>
@@ -2955,35 +3010,32 @@
         <v>86</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G38" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H38" s="4">
         <v>90</v>
@@ -3000,16 +3052,16 @@
         <v>85</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q38" s="4">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="R38" s="4">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="S38" s="4">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -3032,35 +3084,35 @@
         <v>86</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G39" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H39" s="4">
         <v>80</v>
@@ -3069,22 +3121,24 @@
         <v>30</v>
       </c>
       <c r="J39" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P39" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="Q39" s="4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R39" s="4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="S39" s="4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -3101,65 +3155,67 @@
         <v>68</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G40" s="4">
+        <v>100</v>
+      </c>
+      <c r="H40" s="4">
         <v>80</v>
-      </c>
-      <c r="H40" s="4">
-        <v>100</v>
       </c>
       <c r="I40" s="4">
         <v>30</v>
       </c>
       <c r="J40" s="4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P40" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="Q40" s="4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="R40" s="4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="S40" s="4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -3176,34 +3232,34 @@
         <v>68</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="18" t="s">
@@ -3213,28 +3269,30 @@
         <v>90</v>
       </c>
       <c r="H41" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I41" s="4">
         <v>30</v>
       </c>
       <c r="J41" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="Q41" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="R41" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="S41" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -3242,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>67</v>
@@ -3251,16 +3309,16 @@
         <v>68</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AD41" s="2" t="s">
         <v>92</v>
@@ -3270,161 +3328,386 @@
       </c>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D42" s="4"/>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="4">
+        <v>6</v>
+      </c>
       <c r="E42" s="4"/>
-      <c r="AB42" s="4"/>
+      <c r="F42" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="4">
+        <v>70</v>
+      </c>
+      <c r="H42" s="4">
+        <v>80</v>
+      </c>
+      <c r="I42" s="4">
+        <v>30</v>
+      </c>
+      <c r="J42" s="4">
+        <v>24</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D43" s="4"/>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="AB43" s="4"/>
+      <c r="F43" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="4">
+        <v>80</v>
+      </c>
+      <c r="H43" s="4">
+        <v>100</v>
+      </c>
+      <c r="I43" s="4">
+        <v>30</v>
+      </c>
+      <c r="J43" s="4">
+        <v>26</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="R43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D44" s="4"/>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
       <c r="E44" s="4"/>
-      <c r="AB44" s="4"/>
+      <c r="F44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="4">
+        <v>90</v>
+      </c>
+      <c r="H44" s="4">
+        <v>120</v>
+      </c>
+      <c r="I44" s="4">
+        <v>30</v>
+      </c>
+      <c r="J44" s="4">
+        <v>28</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <v>2500</v>
+      </c>
+      <c r="R44" s="4">
+        <v>2500</v>
+      </c>
+      <c r="S44" s="4">
+        <v>2500</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AF49" s="4"/>
+    </row>
+    <row r="50" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AF50" s="4"/>
+    </row>
+    <row r="51" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AB51" s="4"/>
-    </row>
-    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AF51" s="4"/>
+    </row>
+    <row r="52" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:32" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
+      <c r="AB71" s="4"/>
+    </row>
+    <row r="72" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="AB72" s="4"/>
+    </row>
+    <row r="73" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F43465-96C4-40F6-A872-79BF6BFCA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8B968-F344-476F-8B1B-CBB864F8F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,626 +96,641 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>井阑</t>
+  </si>
+  <si>
+    <t>投石</t>
+  </si>
+  <si>
+    <t>木兽</t>
+  </si>
+  <si>
+    <t>走舸</t>
+  </si>
+  <si>
+    <t>楼船</t>
+  </si>
+  <si>
+    <t>斗舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aniIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准装备的兵装，威力是最弱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于对付骑兵，但不利于戟兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于对付枪兵，但不利于骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对２区格之外的敌人执行弓箭攻击</t>
+  </si>
+  <si>
+    <t>有利于对付戟兵，但不利于枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接攻击建筑物的兵器，可大大削弱建筑物的耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以弓箭攻击建筑物的兵器，可大大削减士兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化井阑后的兵器，以投石攻击３区格外之敌方耐久与士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将冲车强化后的兵器，可削减建筑物的耐久，并放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准装备的舰船。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型船，移动力、装甲都比走舸强化许多</t>
+  </si>
+  <si>
+    <t>将楼船强化后的舰船，可执行投石攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通运输队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木牛流马运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>移动力</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为战斗部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单兵装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否陆地装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrainCost</t>
+  </si>
+  <si>
+    <t>地形移动花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联适应能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
+  </si>
+  <si>
+    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>influenceAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>durabilityDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为远程部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defType</t>
+  </si>
+  <si>
+    <t>atkType</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costTechPoint</t>
+  </si>
+  <si>
+    <t>costExpPoint</t>
+  </si>
+  <si>
+    <t>额外经验消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外技巧消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外人口消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外金钱消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外粮食消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食消耗倍率</t>
+  </si>
+  <si>
+    <t>foodCostFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costItems</t>
+  </si>
+  <si>
+    <t>刀兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白毦兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马义从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无当飞军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦帆军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大戟士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎卫军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validItemId</t>
+  </si>
+  <si>
+    <t>validTechId</t>
+  </si>
+  <si>
+    <t>必须科技Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须兵符道具Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops4.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops5.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops6.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops7.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2221.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2223.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2225.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具(1000人份)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>井阑</t>
-  </si>
-  <si>
-    <t>投石</t>
-  </si>
-  <si>
-    <t>木兽</t>
-  </si>
-  <si>
-    <t>走舸</t>
-  </si>
-  <si>
-    <t>楼船</t>
-  </si>
-  <si>
-    <t>斗舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准装备的兵装，威力是最弱的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有利于对付骑兵，但不利于戟兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有利于对付枪兵，但不利于骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可对２区格之外的敌人执行弓箭攻击</t>
-  </si>
-  <si>
-    <t>有利于对付戟兵，但不利于枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接攻击建筑物的兵器，可大大削弱建筑物的耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以弓箭攻击建筑物的兵器，可大大削减士兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化井阑后的兵器，以投石攻击３区格外之敌方耐久与士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将冲车强化后的兵器，可削减建筑物的耐久，并放火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准装备的舰船。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型船，移动力、装甲都比走舸强化许多</t>
-  </si>
-  <si>
-    <t>将楼船强化后的舰船，可执行投石攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通运输队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木牛流马运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>移动力</t>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为战斗部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否单兵装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否陆地装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terrainCost</t>
-  </si>
-  <si>
-    <t>地形移动花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联适应能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-  </si>
-  <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>influenceAbility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>durabilityDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为远程部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defType</t>
-  </si>
-  <si>
-    <t>atkType</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costPopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costTechPoint</t>
-  </si>
-  <si>
-    <t>costExpPoint</t>
-  </si>
-  <si>
-    <t>额外经验消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外技巧消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外人口消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外金钱消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外粮食消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食消耗倍率</t>
-  </si>
-  <si>
-    <t>foodCostFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costItems</t>
-  </si>
-  <si>
-    <t>消耗道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白毦兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎豹骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马义从</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西凉铁骑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>‌</t>
-    </r>
-  </si>
-  <si>
-    <t>藤甲兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>象兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无当飞军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦帆军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青州兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大戟士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎卫军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validItemId</t>
-  </si>
-  <si>
-    <t>validTechId</t>
-  </si>
-  <si>
-    <t>必须科技Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须兵符道具Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops3.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops4.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops5.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops6.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops7.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2221.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2223.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2225.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2227.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/p_jinlan.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西凉铁骑‌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,12 +785,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -905,7 +914,9 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1216,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,70 +1275,70 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="K1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="AA1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>11</v>
@@ -1339,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="6"/>
@@ -1362,7 +1373,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
@@ -1396,70 +1407,70 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="X3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="AA3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>12</v>
@@ -1468,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -1493,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>4</v>
@@ -1523,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>4</v>
@@ -1541,22 +1552,22 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="14" t="s">
         <v>3</v>
@@ -1568,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
@@ -1576,16 +1587,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="4">
         <v>65</v>
@@ -1606,15 +1617,14 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="4"/>
+        <v>80</v>
+      </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
@@ -1634,31 +1644,31 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="4"/>
     </row>
@@ -1668,16 +1678,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1698,16 +1708,16 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1728,31 +1738,31 @@
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF6" s="4"/>
     </row>
@@ -1761,16 +1771,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1791,16 +1801,16 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1821,31 +1831,31 @@
         <v>1</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF7" s="4"/>
     </row>
@@ -1854,16 +1864,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1884,16 +1894,16 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1914,31 +1924,31 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF8" s="4"/>
     </row>
@@ -1947,16 +1957,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1977,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>121</v>
+        <v>80</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
@@ -2007,31 +2017,31 @@
         <v>2</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF9" s="4"/>
     </row>
@@ -2040,13 +2050,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="4">
@@ -2068,15 +2078,14 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="4"/>
+        <v>80</v>
+      </c>
       <c r="Q10" s="4">
         <v>0</v>
       </c>
@@ -2096,25 +2105,25 @@
         <v>0.5</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AF10" s="4"/>
     </row>
@@ -2123,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="4">
@@ -2151,15 +2160,14 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="4"/>
+        <v>80</v>
+      </c>
       <c r="Q11" s="4">
         <v>0</v>
       </c>
@@ -2179,25 +2187,25 @@
         <v>0.5</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AF11" s="4"/>
     </row>
@@ -2206,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2224,7 +2232,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J12" s="4">
         <v>24</v>
@@ -2232,15 +2240,17 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="Q12" s="4">
         <v>0</v>
       </c>
@@ -2260,28 +2270,28 @@
         <v>1</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Z12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AF12" s="4"/>
     </row>
@@ -2290,16 +2300,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2308,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J13" s="4">
         <v>26</v>
@@ -2316,15 +2326,17 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="Q13" s="4">
         <v>0</v>
       </c>
@@ -2344,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Z13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AF13" s="4"/>
     </row>
@@ -2374,16 +2386,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2392,7 +2404,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J14" s="4">
         <v>28</v>
@@ -2400,15 +2412,17 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="Q14" s="4">
         <v>0</v>
       </c>
@@ -2428,28 +2442,28 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Z14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AF14" s="4"/>
     </row>
@@ -2457,171 +2471,364 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>128</v>
+      <c r="C15" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4">
+        <v>70</v>
+      </c>
+      <c r="H15" s="4">
+        <v>90</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="4">
+        <v>16</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f>VLOOKUP(D15,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N15" s="4">
-        <v>8</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="W15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>137</v>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" ref="E16:E26" si="0">VLOOKUP(D16,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="4">
+        <v>90</v>
+      </c>
+      <c r="H16" s="4">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" s="4">
-        <v>9</v>
+      <c r="J16" s="4">
+        <v>16</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2400</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2400</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2400</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>129</v>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4">
+        <v>80</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N17" s="4">
-        <v>10</v>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>162</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18" s="4">
+        <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J18" s="4">
-        <v>28</v>
-      </c>
-      <c r="N18" s="4">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>2500</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2500</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2500</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <f>VLOOKUP(D19,$D$6:$E$9,2,0)</f>
+        <v>刀兵</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N19" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.15">
@@ -2629,32 +2836,32 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <f t="shared" ref="E20:E30" si="0">VLOOKUP(D20,$D$6:$E$9,2,0)</f>
+        <v>枪兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N20" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.15">
@@ -2662,43 +2869,40 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="4">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="N21" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>132</v>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -2708,25 +2912,25 @@
         <v>骑兵</v>
       </c>
       <c r="F22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J22" s="4">
         <v>28</v>
       </c>
       <c r="N22" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.15">
@@ -2734,488 +2938,325 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N23" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>134</v>
+      <c r="C24" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="4">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="N24" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB24" s="4"/>
-      <c r="AF24" s="4"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>135</v>
+      <c r="C25" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="J25" s="4">
+        <v>28</v>
+      </c>
+      <c r="N25" s="4">
+        <v>14</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB25" s="4"/>
-      <c r="AF25" s="4"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>骑兵</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="4">
+        <v>28</v>
+      </c>
+      <c r="N26" s="4">
+        <v>15</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>刀兵</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="4">
+        <v>16</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>骑兵</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="4">
+        <v>28</v>
+      </c>
+      <c r="N28" s="4">
+        <v>17</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>弓兵</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
+      <c r="F29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>弓兵</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="4">
         <v>13</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4">
         <v>7</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>50</v>
-      </c>
-      <c r="I36" s="4">
-        <v>30</v>
-      </c>
-      <c r="J36" s="4">
-        <v>20</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4">
-        <v>1</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B37" s="4">
-        <v>14</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="4">
-        <v>7</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>50</v>
-      </c>
-      <c r="I37" s="4">
-        <v>30</v>
-      </c>
-      <c r="J37" s="4">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4">
-        <v>1</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B38" s="4">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="4">
-        <v>70</v>
-      </c>
-      <c r="H38" s="4">
-        <v>90</v>
-      </c>
-      <c r="I38" s="4">
-        <v>30</v>
-      </c>
-      <c r="J38" s="4">
-        <v>16</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R38" s="4">
-        <v>2000</v>
-      </c>
-      <c r="S38" s="4">
-        <v>2000</v>
-      </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B39" s="4">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="4">
-        <v>80</v>
-      </c>
-      <c r="H39" s="4">
-        <v>80</v>
-      </c>
-      <c r="I39" s="4">
-        <v>30</v>
-      </c>
-      <c r="J39" s="4">
-        <v>16</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>2400</v>
-      </c>
-      <c r="R39" s="4">
-        <v>2400</v>
-      </c>
-      <c r="S39" s="4">
-        <v>2400</v>
-      </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4">
-        <v>1</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="4">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I40" s="4">
         <v>30</v>
       </c>
       <c r="J40" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R40" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="S40" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -3229,70 +3270,64 @@
         <v>67</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF40" s="4"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H41" s="4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I41" s="4">
         <v>30</v>
       </c>
       <c r="J41" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -3300,257 +3335,47 @@
         <v>1</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF41" s="4"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B42" s="4">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4">
-        <v>6</v>
-      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="4">
-        <v>70</v>
-      </c>
-      <c r="H42" s="4">
-        <v>80</v>
-      </c>
-      <c r="I42" s="4">
-        <v>30</v>
-      </c>
-      <c r="J42" s="4">
-        <v>24</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE42" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B43" s="4">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="4">
-        <v>6</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="4">
-        <v>80</v>
-      </c>
-      <c r="H43" s="4">
-        <v>100</v>
-      </c>
-      <c r="I43" s="4">
-        <v>30</v>
-      </c>
-      <c r="J43" s="4">
-        <v>26</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R43" s="4">
-        <v>2000</v>
-      </c>
-      <c r="S43" s="4">
-        <v>2000</v>
-      </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4">
-        <v>1</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B44" s="4">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="4">
-        <v>6</v>
-      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="4">
-        <v>90</v>
-      </c>
-      <c r="H44" s="4">
-        <v>120</v>
-      </c>
-      <c r="I44" s="4">
-        <v>30</v>
-      </c>
-      <c r="J44" s="4">
-        <v>28</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4">
-        <v>2500</v>
-      </c>
-      <c r="R44" s="4">
-        <v>2500</v>
-      </c>
-      <c r="S44" s="4">
-        <v>2500</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4">
-        <v>1</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.15">
@@ -3577,85 +3402,82 @@
       <c r="AB48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AB49" s="4"/>
-      <c r="AF49" s="4"/>
-    </row>
-    <row r="50" spans="4:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AB50" s="4"/>
-      <c r="AF50" s="4"/>
-    </row>
-    <row r="51" spans="4:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AB51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="4:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AB64" s="4"/>
@@ -3693,21 +3515,6 @@
     <row r="71" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="AB71" s="4"/>
-    </row>
-    <row r="72" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="AB72" s="4"/>
-    </row>
-    <row r="73" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="AB73" s="4"/>
-    </row>
-    <row r="74" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8B968-F344-476F-8B1B-CBB864F8F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373D3EE-E245-42B5-9F53-007901B354C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="1932" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,635 +102,646 @@
     <t>投石</t>
   </si>
   <si>
+    <t>走舸</t>
+  </si>
+  <si>
+    <t>楼船</t>
+  </si>
+  <si>
+    <t>斗舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://game/4845_7_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aniIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准装备的兵装，威力是最弱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于对付骑兵，但不利于戟兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于对付枪兵，但不利于骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对２区格之外的敌人执行弓箭攻击</t>
+  </si>
+  <si>
+    <t>有利于对付戟兵，但不利于枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接攻击建筑物的兵器，可大大削弱建筑物的耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以弓箭攻击建筑物的兵器，可大大削减士兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化井阑后的兵器，以投石攻击３区格外之敌方耐久与士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将冲车强化后的兵器，可削减建筑物的耐久，并放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准装备的舰船。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型船，移动力、装甲都比走舸强化许多</t>
+  </si>
+  <si>
+    <t>将楼船强化后的舰船，可执行投石攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通运输队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木牛流马运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>移动力</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为战斗部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单兵装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否陆地装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrainCost</t>
+  </si>
+  <si>
+    <t>地形移动花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联适应能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
+  </si>
+  <si>
+    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>influenceAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>durabilityDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为远程部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defType</t>
+  </si>
+  <si>
+    <t>atkType</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costTechPoint</t>
+  </si>
+  <si>
+    <t>costExpPoint</t>
+  </si>
+  <si>
+    <t>额外经验消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外技巧消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外人口消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外金钱消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外粮食消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食消耗倍率</t>
+  </si>
+  <si>
+    <t>foodCostFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costItems</t>
+  </si>
+  <si>
+    <t>刀兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白毦兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马义从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无当飞军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦帆军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大戟士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎卫军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validItemId</t>
+  </si>
+  <si>
+    <t>必须科技Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须兵符道具Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops4.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops5.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops6.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/Troops7.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2221.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2223.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2225.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具(1000人份)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井阑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/2227.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/p_jinlan.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西凉铁骑‌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>木兽</t>
-  </si>
-  <si>
-    <t>走舸</t>
-  </si>
-  <si>
-    <t>楼船</t>
-  </si>
-  <si>
-    <t>斗舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准装备的兵装，威力是最弱的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有利于对付骑兵，但不利于戟兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有利于对付枪兵，但不利于骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可对２区格之外的敌人执行弓箭攻击</t>
-  </si>
-  <si>
-    <t>有利于对付戟兵，但不利于枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接攻击建筑物的兵器，可大大削弱建筑物的耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以弓箭攻击建筑物的兵器，可大大削减士兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化井阑后的兵器，以投石攻击３区格外之敌方耐久与士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将冲车强化后的兵器，可削减建筑物的耐久，并放火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准装备的舰船。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型船，移动力、装甲都比走舸强化许多</t>
-  </si>
-  <si>
-    <t>将楼船强化后的舰船，可执行投石攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通运输队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木牛流马运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>移动力</t>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为战斗部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否单兵装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否陆地装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terrainCost</t>
-  </si>
-  <si>
-    <t>地形移动花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联适应能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-  </si>
-  <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>influenceAbility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>durabilityDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为远程部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defType</t>
-  </si>
-  <si>
-    <t>atkType</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costPopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costTechPoint</t>
-  </si>
-  <si>
-    <t>costExpPoint</t>
-  </si>
-  <si>
-    <t>额外经验消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外技巧消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外人口消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外金钱消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外粮食消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食消耗倍率</t>
-  </si>
-  <si>
-    <t>foodCostFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costItems</t>
-  </si>
-  <si>
-    <t>刀兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白毦兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎豹骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马义从</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤甲兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>象兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无当飞军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦帆军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青州兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大戟士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎卫军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>validTechId</t>
-  </si>
-  <si>
-    <t>必须科技Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须兵符道具Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops3.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops4.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops5.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops6.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/Troops7.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2221.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2223.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2225.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗道具(1000人份)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井阑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/2227.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Model/Prefab/p_jinlan.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西凉铁骑‌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,39 +1241,39 @@
   <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="76.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" style="2" customWidth="1"/>
+    <col min="17" max="18" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="76.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="55.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.88671875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1275,70 +1286,70 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="AA1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>11</v>
@@ -1350,12 +1361,12 @@
         <v>9</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1403,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1407,70 +1418,70 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="X3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="AA3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>12</v>
@@ -1479,15 +1490,15 @@
         <v>13</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>4</v>
@@ -1534,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>4</v>
@@ -1552,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="14" t="s">
         <v>3</v>
@@ -1579,24 +1590,24 @@
         <v>3</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4">
         <v>65</v>
@@ -1617,77 +1628,61 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
       <c r="V5" s="4">
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1708,79 +1703,63 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="4">
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1801,79 +1780,63 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="4">
         <v>1</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1894,79 +1857,63 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="4">
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1987,76 +1934,60 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="4">
         <v>2</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="4">
@@ -2078,67 +2009,51 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
       <c r="V10" s="4">
         <v>0.5</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="4">
@@ -2160,70 +2075,54 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="4">
         <v>0.5</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2232,7 +2131,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J12" s="4">
         <v>24</v>
@@ -2240,76 +2139,60 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
       <c r="V12" s="4">
         <v>1</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2318,7 +2201,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J13" s="4">
         <v>26</v>
@@ -2326,76 +2209,60 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="4">
         <v>1</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2404,7 +2271,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J14" s="4">
         <v>28</v>
@@ -2412,76 +2279,60 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="4">
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2490,7 +2341,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J15" s="4">
         <v>16</v>
@@ -2498,72 +2349,66 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R15" s="4">
-        <v>2000</v>
-      </c>
-      <c r="S15" s="4">
-        <v>2000</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4">
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2572,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J16" s="4">
         <v>16</v>
@@ -2580,58 +2425,52 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>2400</v>
-      </c>
-      <c r="R16" s="4">
-        <v>2400</v>
-      </c>
-      <c r="S16" s="4">
-        <v>2400</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4">
         <v>1</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2642,10 +2481,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2654,7 +2493,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2662,58 +2501,52 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>2400</v>
-      </c>
-      <c r="R17" s="4">
-        <v>2400</v>
-      </c>
-      <c r="S17" s="4">
-        <v>2400</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4">
         <v>1</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2724,10 +2557,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2736,7 +2569,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J18" s="4">
         <v>16</v>
@@ -2744,63 +2577,57 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>2500</v>
-      </c>
-      <c r="R18" s="4">
-        <v>2500</v>
-      </c>
-      <c r="S18" s="4">
-        <v>2500</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4">
         <v>1</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Z18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2810,33 +2637,27 @@
         <v>刀兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N19" s="4">
         <v>8</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2846,30 +2667,27 @@
         <v>枪兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N20" s="4">
         <v>9</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -2879,30 +2697,27 @@
         <v>枪兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N21" s="4">
         <v>10</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -2912,16 +2727,16 @@
         <v>骑兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J22" s="4">
         <v>28</v>
@@ -2929,16 +2744,13 @@
       <c r="N22" s="4">
         <v>11</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -2948,30 +2760,27 @@
         <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N23" s="4">
         <v>12</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -2981,30 +2790,27 @@
         <v>刀兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N24" s="4">
         <v>13</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -3014,16 +2820,16 @@
         <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
@@ -3031,16 +2837,13 @@
       <c r="N25" s="4">
         <v>14</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -3050,16 +2853,16 @@
         <v>骑兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
@@ -3067,16 +2870,13 @@
       <c r="N26" s="4">
         <v>15</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -3086,30 +2886,27 @@
         <v>刀兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N27" s="4">
         <v>16</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
@@ -3119,16 +2916,16 @@
         <v>骑兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J28" s="4">
         <v>28</v>
@@ -3136,18 +2933,15 @@
       <c r="N28" s="4">
         <v>17</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="AB28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -3157,32 +2951,29 @@
         <v>弓兵</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -3192,25 +2983,22 @@
         <v>弓兵</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3218,19 +3006,19 @@
       <c r="AB39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4">
         <v>7</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -3247,7 +3035,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="4">
         <v>0</v>
@@ -3264,44 +3052,44 @@
         <v>1</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>14</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="4">
         <v>7</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -3318,7 +3106,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="4">
         <v>0</v>
@@ -3335,184 +3123,184 @@
         <v>1</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373D3EE-E245-42B5-9F53-007901B354C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29172A-8CB9-4ABF-9189-B024CCA4BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="1932" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="1140" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="196">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,41 @@
   </si>
   <si>
     <t>validTechId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchFeatures</t>
+  </si>
+  <si>
+    <t>适配的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,42,43,40,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,42,44,40,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,45,40,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,46,40,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,48,40,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,41,47,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,42 +1273,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="76.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.88671875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="20.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="76.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="55.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41.875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1310,63 +1345,66 @@
         <v>77</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="6"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="6"/>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1384,26 +1422,27 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="16"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2"/>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1442,63 +1481,66 @@
         <v>89</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1538,17 +1580,17 @@
       <c r="M4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>6</v>
+      <c r="N4" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>4</v>
@@ -1563,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="V4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>67</v>
@@ -1577,23 +1619,26 @@
       <c r="Z4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1630,19 +1675,16 @@
       <c r="M5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
         <v>1</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>65</v>
@@ -1651,23 +1693,26 @@
         <v>65</v>
       </c>
       <c r="AA5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1705,22 +1750,22 @@
       <c r="M6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>65</v>
@@ -1729,23 +1774,26 @@
         <v>65</v>
       </c>
       <c r="AA6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1782,22 +1830,22 @@
       <c r="M7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
         <v>1</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>65</v>
@@ -1806,23 +1854,26 @@
         <v>65</v>
       </c>
       <c r="AA7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1859,19 +1910,19 @@
       <c r="M8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
         <v>1</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>65</v>
@@ -1883,23 +1934,26 @@
         <v>65</v>
       </c>
       <c r="AA8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1936,22 +1990,22 @@
       <c r="M9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="N9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
         <v>2</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>65</v>
@@ -1960,23 +2014,26 @@
         <v>65</v>
       </c>
       <c r="AA9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2011,16 +2068,13 @@
       <c r="M10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
         <v>0.5</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>66</v>
@@ -2029,20 +2083,23 @@
         <v>66</v>
       </c>
       <c r="Z10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2077,16 +2134,13 @@
       <c r="M11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
         <v>0.5</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>66</v>
@@ -2095,20 +2149,23 @@
         <v>66</v>
       </c>
       <c r="Z11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2139,46 +2196,49 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
         <v>1</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AA12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2209,46 +2269,49 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
         <v>1</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AA13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2279,46 +2342,49 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <v>1</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AA14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2351,50 +2417,53 @@
       <c r="M15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
         <v>1</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2427,50 +2496,53 @@
       <c r="M16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="N16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2503,50 +2575,53 @@
       <c r="M17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
         <v>1</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Y17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2579,50 +2654,53 @@
       <c r="M18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="N18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
         <v>1</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Y18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2648,109 +2726,130 @@
       <c r="I19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="4">
+      <c r="M19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" ref="E20:E30" si="0">VLOOKUP(D20,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <f>VLOOKUP(D20,$D$6:$E$9,2,0)</f>
+        <v>刀兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <f>VLOOKUP(D21,$D$6:$E$9,2,0)</f>
+        <v>刀兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N21" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <f t="shared" ref="E22:E30" si="0">VLOOKUP(D22,$D$6:$E$9,2,0)</f>
+        <v>枪兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" s="4">
-        <v>28</v>
-      </c>
-      <c r="N22" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -2766,51 +2865,63 @@
         <v>143</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N23" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <f>VLOOKUP(D24,$D$6:$E$9,2,0)</f>
+        <v>枪兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2826,7 +2937,7 @@
         <v>143</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>145</v>
@@ -2834,16 +2945,22 @@
       <c r="J25" s="4">
         <v>28</v>
       </c>
-      <c r="N25" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -2859,7 +2976,7 @@
         <v>143</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>145</v>
@@ -2867,41 +2984,56 @@
       <c r="J26" s="4">
         <v>28</v>
       </c>
-      <c r="N26" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N27" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>28</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -2930,13 +3062,19 @@
       <c r="J28" s="4">
         <v>28</v>
       </c>
-      <c r="N28" s="4">
+      <c r="M28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" s="4">
         <v>17</v>
       </c>
-      <c r="AB28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC28" s="4"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -2962,13 +3100,19 @@
       <c r="I29" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="N29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AB29" s="4"/>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC29" s="4"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -2994,19 +3138,25 @@
       <c r="I30" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="M30" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="N30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC39" s="4"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>13</v>
       </c>
@@ -3037,22 +3187,19 @@
       <c r="M40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
       <c r="R40" s="4">
         <v>0</v>
       </c>
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="4"/>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
       <c r="U40" s="4"/>
-      <c r="V40" s="4">
+      <c r="V40" s="4"/>
+      <c r="W40" s="4">
         <v>1</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X40" s="2" t="s">
         <v>66</v>
@@ -3061,23 +3208,26 @@
         <v>66</v>
       </c>
       <c r="Z40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AB40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB40" s="4" t="s">
+      <c r="AC40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AE40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AG40" s="4"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>14</v>
       </c>
@@ -3108,22 +3258,19 @@
       <c r="M41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
       <c r="R41" s="4">
         <v>0</v>
       </c>
       <c r="S41" s="4">
         <v>0</v>
       </c>
-      <c r="T41" s="4"/>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
       <c r="U41" s="4"/>
-      <c r="V41" s="4">
+      <c r="V41" s="4"/>
+      <c r="W41" s="4">
         <v>1</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>66</v>
@@ -3132,175 +3279,178 @@
         <v>66</v>
       </c>
       <c r="Z41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB41" s="4" t="s">
+      <c r="AC41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AE41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC42" s="4"/>
+      <c r="AG42" s="4"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC43" s="4"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC44" s="4"/>
+      <c r="AG44" s="4"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC45" s="4"/>
+      <c r="AG45" s="4"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC46" s="4"/>
+      <c r="AG46" s="4"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AF47" s="4"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AC47" s="4"/>
+      <c r="AG47" s="4"/>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC48" s="4"/>
+      <c r="AG48" s="4"/>
+    </row>
+    <row r="49" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC49" s="4"/>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC50" s="4"/>
+    </row>
+    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="AB51" s="4"/>
-    </row>
-    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC51" s="4"/>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="AB52" s="4"/>
-    </row>
-    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC52" s="4"/>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="AB53" s="4"/>
-    </row>
-    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC53" s="4"/>
+    </row>
+    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="AB54" s="4"/>
-    </row>
-    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC54" s="4"/>
+    </row>
+    <row r="55" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="AB56" s="4"/>
-    </row>
-    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="AB57" s="4"/>
-    </row>
-    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC57" s="4"/>
+    </row>
+    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="AB58" s="4"/>
-    </row>
-    <row r="59" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="AB59" s="4"/>
-    </row>
-    <row r="60" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC59" s="4"/>
+    </row>
+    <row r="60" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="AB60" s="4"/>
-    </row>
-    <row r="61" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC60" s="4"/>
+    </row>
+    <row r="61" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="AB61" s="4"/>
-    </row>
-    <row r="62" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC61" s="4"/>
+    </row>
+    <row r="62" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="AB62" s="4"/>
-    </row>
-    <row r="63" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC62" s="4"/>
+    </row>
+    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="AB63" s="4"/>
-    </row>
-    <row r="64" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC63" s="4"/>
+    </row>
+    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="AB64" s="4"/>
-    </row>
-    <row r="65" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC64" s="4"/>
+    </row>
+    <row r="65" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="AB65" s="4"/>
-    </row>
-    <row r="66" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC65" s="4"/>
+    </row>
+    <row r="66" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="AB66" s="4"/>
-    </row>
-    <row r="67" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="AB67" s="4"/>
-    </row>
-    <row r="68" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC67" s="4"/>
+    </row>
+    <row r="68" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="AB68" s="4"/>
-    </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC68" s="4"/>
+    </row>
+    <row r="69" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="AB69" s="4"/>
-    </row>
-    <row r="70" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC69" s="4"/>
+    </row>
+    <row r="70" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="AB70" s="4"/>
-    </row>
-    <row r="71" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AC70" s="4"/>
+    </row>
+    <row r="71" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29172A-8CB9-4ABF-9189-B024CCA4BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A38854-496E-463A-A1D4-90495FF5D0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1140" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -120,54 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui://game/4845_7_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动画配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,6 +729,53 @@
   </si>
   <si>
     <t>49,41,47,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_0</t>
+  </si>
+  <si>
+    <t>4845_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,40 +1274,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="20.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="2" customWidth="1"/>
-    <col min="18" max="19" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="76.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="55.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="20.7265625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.7265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="76.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="55.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="45.08984375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="41.90625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1321,73 +1323,73 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>11</v>
@@ -1399,12 +1401,12 @@
         <v>9</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="8"/>
       <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1444,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1457,73 +1459,73 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="T3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="V3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="X3" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>12</v>
@@ -1532,15 +1534,15 @@
         <v>13</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>4</v>
@@ -1581,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>6</v>
@@ -1590,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>4</v>
@@ -1608,22 +1610,22 @@
         <v>4</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>3</v>
@@ -1635,24 +1637,24 @@
         <v>3</v>
       </c>
       <c r="AF4" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4">
         <v>65</v>
@@ -1673,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1684,50 +1686,50 @@
         <v>1</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1748,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1765,49 +1767,49 @@
         <v>1</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1828,13 +1830,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1845,49 +1847,49 @@
         <v>1</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1908,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1925,49 +1927,49 @@
         <v>1</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1988,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2005,35 +2007,35 @@
         <v>2</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2077,29 +2079,29 @@
         <v>0.5</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2132,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2143,29 +2145,29 @@
         <v>0.5</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2176,10 +2178,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2188,7 +2190,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J12" s="4">
         <v>24</v>
@@ -2196,13 +2198,13 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2213,32 +2215,32 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2249,10 +2251,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2261,7 +2263,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J13" s="4">
         <v>26</v>
@@ -2269,13 +2271,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2286,32 +2288,32 @@
         <v>1</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2322,10 +2324,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2334,7 +2336,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J14" s="4">
         <v>28</v>
@@ -2342,13 +2344,13 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2359,46 +2361,46 @@
         <v>1</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2407,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" s="4">
         <v>16</v>
@@ -2415,16 +2417,16 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2435,49 +2437,49 @@
         <v>1</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2486,7 +2488,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J16" s="4">
         <v>16</v>
@@ -2494,16 +2496,16 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2514,35 +2516,35 @@
         <v>1</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2553,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2565,7 +2567,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2573,16 +2575,16 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2593,35 +2595,35 @@
         <v>1</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2632,10 +2634,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2644,7 +2646,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J18" s="4">
         <v>16</v>
@@ -2652,16 +2654,16 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2672,40 +2674,40 @@
         <v>1</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2715,33 +2717,33 @@
         <v>刀兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2751,33 +2753,33 @@
         <v>刀兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -2787,33 +2789,33 @@
         <v>刀兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -2823,33 +2825,33 @@
         <v>枪兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -2859,33 +2861,33 @@
         <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2895,33 +2897,33 @@
         <v>枪兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2931,36 +2933,36 @@
         <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -2970,36 +2972,36 @@
         <v>骑兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -3009,36 +3011,36 @@
         <v>骑兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J27" s="4">
         <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
@@ -3048,25 +3050,25 @@
         <v>骑兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J28" s="4">
         <v>28</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
@@ -3074,12 +3076,12 @@
       <c r="AC28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -3089,35 +3091,35 @@
         <v>弓兵</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -3127,28 +3129,28 @@
         <v>弓兵</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3156,7 +3158,7 @@
       <c r="AC39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>13</v>
       </c>
@@ -3168,7 +3170,7 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -3185,7 +3187,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="R40" s="4">
         <v>0</v>
@@ -3202,32 +3204,32 @@
         <v>1</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>14</v>
       </c>
@@ -3239,7 +3241,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -3256,7 +3258,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="R41" s="4">
         <v>0</v>
@@ -3273,184 +3275,184 @@
         <v>1</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/部队类型.xlsx
+++ b/Data/Export/Common/部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A38854-496E-463A-A1D4-90495FF5D0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF55DF-EBBB-46CF-94DB-B1BB572D4293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="195">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,10 +626,6 @@
   </si>
   <si>
     <t>3,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1275,42 +1271,42 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="20.7265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.7265625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="76.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="55.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="45.08984375" style="2" customWidth="1"/>
-    <col min="31" max="31" width="41.90625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="20.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="76.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="55.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="45.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="41.875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1347,7 +1343,7 @@
         <v>65</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>118</v>
@@ -1406,7 +1402,7 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1440,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1483,13 +1479,13 @@
         <v>77</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>102</v>
@@ -1542,7 +1538,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>119</v>
@@ -1714,7 +1710,7 @@
       </c>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1753,7 +1749,7 @@
         <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>154</v>
@@ -1785,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>120</v>
@@ -1795,7 +1791,7 @@
       </c>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>68</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>157</v>
@@ -1865,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>121</v>
@@ -1875,7 +1871,7 @@
       </c>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1913,7 +1909,7 @@
         <v>69</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>156</v>
@@ -1945,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>122</v>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>70</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>155</v>
@@ -2025,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>123</v>
@@ -2035,7 +2031,7 @@
       </c>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2167,7 +2163,7 @@
       </c>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2198,13 +2194,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2233,14 +2226,14 @@
         <v>36</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2271,13 +2264,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2306,14 +2299,14 @@
         <v>37</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>149</v>
       </c>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2344,13 +2337,13 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2379,28 +2372,28 @@
         <v>38</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2420,13 +2413,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2455,31 +2448,31 @@
         <v>32</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2499,13 +2492,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2534,17 +2527,17 @@
         <v>35</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2555,10 +2548,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2578,13 +2571,13 @@
         <v>71</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2613,17 +2606,17 @@
         <v>33</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2634,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>129</v>
@@ -2657,13 +2650,13 @@
         <v>71</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2692,17 +2685,17 @@
         <v>34</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2732,13 +2725,13 @@
         <v>68</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>20</v>
       </c>
@@ -2768,13 +2761,13 @@
         <v>68</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>23</v>
       </c>
@@ -2804,13 +2797,13 @@
         <v>68</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>16</v>
       </c>
@@ -2840,13 +2833,13 @@
         <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>17</v>
       </c>
@@ -2876,13 +2869,13 @@
         <v>66</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>19</v>
       </c>
@@ -2912,13 +2905,13 @@
         <v>66</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -2951,13 +2944,13 @@
         <v>70</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -2990,18 +2983,18 @@
         <v>70</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -3029,13 +3022,13 @@
         <v>70</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3068,7 +3061,7 @@
         <v>70</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
@@ -3076,7 +3069,7 @@
       <c r="AC28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3106,7 +3099,7 @@
         <v>69</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>129</v>
@@ -3114,7 +3107,7 @@
       <c r="AC29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3144,13 +3137,13 @@
         <v>69</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3158,7 +3151,7 @@
       <c r="AC39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>13</v>
       </c>
@@ -3229,7 +3222,7 @@
       </c>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>14</v>
       </c>
@@ -3300,159 +3293,159 @@
       </c>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:29" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
